--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43925,6 +43925,41 @@
         <v>1134700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>910300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43960,6 +43960,41 @@
         <v>910300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>288800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43995,6 +43995,41 @@
         <v>288800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>228000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44030,6 +44030,41 @@
         <v>228000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>303300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44065,6 +44065,41 @@
         <v>303300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>108700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44100,6 +44100,41 @@
         <v>108700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44135,6 +44135,41 @@
         <v>145000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44170,6 +44170,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>105000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44205,6 +44205,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>115300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44240,6 +44240,41 @@
         <v>115300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>52700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44275,6 +44275,41 @@
         <v>52700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>77300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44310,6 +44310,41 @@
         <v>77300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>86600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44345,6 +44345,76 @@
         <v>86600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>70100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>77500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44415,6 +44415,76 @@
         <v>77500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>59900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>95100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44485,6 +44485,41 @@
         <v>95100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44520,6 +44520,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>61900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44555,6 +44555,41 @@
         <v>61900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44590,6 +44590,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>157500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44625,6 +44625,76 @@
         <v>157500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>105800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44695,6 +44695,41 @@
         <v>105800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44730,6 +44730,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1650"/>
+  <dimension ref="A1:I1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59080,6 +59080,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>106600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1651"/>
+  <dimension ref="A1:I1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59115,6 +59115,41 @@
         <v>106600</v>
       </c>
     </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>249000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1652"/>
+  <dimension ref="A1:I1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59150,6 +59150,41 @@
         <v>249000</v>
       </c>
     </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>52800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1653"/>
+  <dimension ref="A1:I1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59185,6 +59185,41 @@
         <v>52800</v>
       </c>
     </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1654"/>
+  <dimension ref="A1:I1655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59220,6 +59220,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>216100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1655"/>
+  <dimension ref="A1:I1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59255,6 +59255,41 @@
         <v>216100</v>
       </c>
     </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1656"/>
+  <dimension ref="A1:I1657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59290,6 +59290,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>67500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1657"/>
+  <dimension ref="A1:I1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59325,6 +59325,41 @@
         <v>67500</v>
       </c>
     </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>141500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1658"/>
+  <dimension ref="A1:I1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59360,6 +59360,41 @@
         <v>141500</v>
       </c>
     </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1659"/>
+  <dimension ref="A1:I1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59395,6 +59395,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>128300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1660"/>
+  <dimension ref="A1:I1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59430,6 +59430,41 @@
         <v>128300</v>
       </c>
     </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>45100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1661"/>
+  <dimension ref="A1:I1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59465,6 +59465,41 @@
         <v>45100</v>
       </c>
     </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1662"/>
+  <dimension ref="A1:I1663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59500,6 +59500,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>238400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1663"/>
+  <dimension ref="A1:I1664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59535,6 +59535,41 @@
         <v>238400</v>
       </c>
     </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5036.xlsx
+++ b/data/5036.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1664"/>
+  <dimension ref="A1:I1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59570,6 +59570,41 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>EDARAN</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
